--- a/Indicadores_Control.xlsx
+++ b/Indicadores_Control.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Comex\Bases_Importaciones_MG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celín\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D43E9A5-55BB-4BAB-98EB-06E0D554A611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6340B4-F8C9-4F44-B08C-52973CBC1D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Series" sheetId="2" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>IMAE</t>
   </si>
@@ -73,15 +76,19 @@
   <si>
     <t>PIBT</t>
   </si>
+  <si>
+    <t>Desgrav</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -617,7 +624,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -634,6 +641,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -714,6 +724,82 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="38">
+          <cell r="C38">
+            <v>11.002208323698556</v>
+          </cell>
+          <cell r="D38">
+            <v>9.7913601680924636</v>
+          </cell>
+          <cell r="E38">
+            <v>8.4544544295107364</v>
+          </cell>
+          <cell r="F38">
+            <v>7.1175486909290138</v>
+          </cell>
+          <cell r="G38">
+            <v>5.7806429523472911</v>
+          </cell>
+          <cell r="H38">
+            <v>4.8756835943763841</v>
+          </cell>
+          <cell r="I38">
+            <v>3.8026474591046329</v>
+          </cell>
+          <cell r="J38">
+            <v>2.7296113238328821</v>
+          </cell>
+          <cell r="K38">
+            <v>1.6565751885611315</v>
+          </cell>
+          <cell r="L38">
+            <v>0.58353905328938116</v>
+          </cell>
+          <cell r="M38">
+            <v>0.45587613370937236</v>
+          </cell>
+          <cell r="N38">
+            <v>0.32821321412936361</v>
+          </cell>
+          <cell r="O38">
+            <v>0.21973721957625078</v>
+          </cell>
+          <cell r="P38">
+            <v>0.11126122502313791</v>
+          </cell>
+          <cell r="Q38">
+            <v>3.5931449556376722E-3</v>
+          </cell>
+          <cell r="R38">
+            <v>2.892942783263621E-3</v>
+          </cell>
+          <cell r="S38">
+            <v>2.1927406108895701E-3</v>
+          </cell>
+          <cell r="T38">
+            <v>1.4925384385155187E-3</v>
+          </cell>
+          <cell r="U38">
+            <v>7.9233626614146763E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,13 +1065,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L229"/>
+  <dimension ref="A1:M229"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D228" sqref="D226:D228"/>
+      <selection pane="bottomRight" activeCell="M229" sqref="M229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -999,10 +1085,12 @@
     <col min="9" max="9" width="11.42578125" style="1"/>
     <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="12" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="12.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1039,8 +1127,11 @@
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="A2" s="1">
         <v>2005</v>
       </c>
@@ -1077,8 +1168,12 @@
       <c r="L2" s="1">
         <v>103.51</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M2" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="A3" s="1">
         <v>2005</v>
       </c>
@@ -1116,8 +1211,12 @@
       <c r="L3" s="1">
         <v>103.55</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M3" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4" s="1">
         <v>2005</v>
       </c>
@@ -1155,8 +1254,12 @@
       <c r="L4" s="1">
         <v>102.85</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M4" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
@@ -1194,8 +1297,12 @@
       <c r="L5" s="1">
         <v>102.57</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M5" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6" s="1">
         <v>2005</v>
       </c>
@@ -1233,8 +1340,12 @@
       <c r="L6" s="1">
         <v>101.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M6" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7" s="1">
         <v>2005</v>
       </c>
@@ -1272,8 +1383,12 @@
       <c r="L7" s="1">
         <v>100.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M7" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
@@ -1311,8 +1426,12 @@
       <c r="L8" s="1">
         <v>100.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M8" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
       <c r="A9" s="1">
         <v>2005</v>
       </c>
@@ -1350,8 +1469,12 @@
       <c r="L9" s="1">
         <v>101.61</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M9" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
       <c r="A10" s="1">
         <v>2005</v>
       </c>
@@ -1389,8 +1512,12 @@
       <c r="L10" s="1">
         <v>101.31</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M10" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" customHeight="1">
       <c r="A11" s="1">
         <v>2005</v>
       </c>
@@ -1428,8 +1555,12 @@
       <c r="L11" s="1">
         <v>100.56</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M11" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12" s="1">
         <v>2005</v>
       </c>
@@ -1467,8 +1598,12 @@
       <c r="L12" s="1">
         <v>100.35</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M12" s="7">
+        <f>+[1]Hoja1!$C$38</f>
+        <v>11.002208323698556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13" s="1">
         <f>+A2+1</f>
         <v>2006</v>
@@ -1506,8 +1641,12 @@
       <c r="L13" s="1">
         <v>100.96</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M13" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14" s="1">
         <f t="shared" ref="A14:A23" si="1">+A3+1</f>
         <v>2006</v>
@@ -1546,8 +1685,12 @@
       <c r="L14" s="1">
         <v>100.31</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M14" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -1586,8 +1729,12 @@
       <c r="L15" s="1">
         <v>100.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M15" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -1626,8 +1773,12 @@
       <c r="L16" s="1">
         <v>100.41</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M16" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -1666,8 +1817,12 @@
       <c r="L17" s="1">
         <v>100.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M17" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" customHeight="1">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -1706,8 +1861,12 @@
       <c r="L18" s="1">
         <v>99.96</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M18" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" customHeight="1">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -1746,8 +1905,12 @@
       <c r="L19" s="1">
         <v>100.09</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M19" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" customHeight="1">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -1786,8 +1949,12 @@
       <c r="L20" s="1">
         <v>100.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M20" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" customHeight="1">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -1826,8 +1993,12 @@
       <c r="L21" s="1">
         <v>100.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M21" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -1866,8 +2037,12 @@
       <c r="L22" s="1">
         <v>99.58</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M22" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>2006</v>
@@ -1906,8 +2081,12 @@
       <c r="L23" s="1">
         <v>99.58</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M23" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" customHeight="1">
       <c r="A24" s="1">
         <v>2006</v>
       </c>
@@ -1945,8 +2124,12 @@
       <c r="L24" s="1">
         <v>99.76</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M24" s="7">
+        <f>+[1]Hoja1!$D$38</f>
+        <v>9.7913601680924636</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" customHeight="1">
       <c r="A25" s="1">
         <f>+A13+1</f>
         <v>2007</v>
@@ -1985,8 +2168,12 @@
       <c r="L25" s="1">
         <v>98.06</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M25" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" customHeight="1">
       <c r="A26" s="1">
         <f t="shared" ref="A26:A89" si="4">+A14+1</f>
         <v>2007</v>
@@ -2025,8 +2212,12 @@
       <c r="L26" s="1">
         <v>97.67</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M26" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.25" customHeight="1">
       <c r="A27" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2065,8 +2256,12 @@
       <c r="L27" s="1">
         <v>97.68</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M27" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" customHeight="1">
       <c r="A28" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2105,8 +2300,12 @@
       <c r="L28" s="1">
         <v>97.94</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M28" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" customHeight="1">
       <c r="A29" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2145,8 +2344,12 @@
       <c r="L29" s="1">
         <v>98.12</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M29" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" customHeight="1">
       <c r="A30" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2185,8 +2388,12 @@
       <c r="L30" s="1">
         <v>97.93</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M30" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" customHeight="1">
       <c r="A31" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2225,8 +2432,12 @@
       <c r="L31" s="1">
         <v>97.89</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M31" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" customHeight="1">
       <c r="A32" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2265,8 +2476,12 @@
       <c r="L32" s="1">
         <v>96.96</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M32" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14.25" customHeight="1">
       <c r="A33" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2305,8 +2520,12 @@
       <c r="L33" s="1">
         <v>97.43</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M33" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.25" customHeight="1">
       <c r="A34" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2345,8 +2564,12 @@
       <c r="L34" s="1">
         <v>97.32</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M34" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14.25" customHeight="1">
       <c r="A35" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2385,8 +2608,12 @@
       <c r="L35" s="1">
         <v>96.92</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M35" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14.25" customHeight="1">
       <c r="A36" s="1">
         <f t="shared" si="4"/>
         <v>2007</v>
@@ -2425,8 +2652,12 @@
       <c r="L36" s="1">
         <v>96.94</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M36" s="7">
+        <f>+[1]Hoja1!$E$38</f>
+        <v>8.4544544295107364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14.25" customHeight="1">
       <c r="A37" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2465,8 +2696,12 @@
       <c r="L37" s="1">
         <v>96.51</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M37" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" customHeight="1">
       <c r="A38" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2505,8 +2740,12 @@
       <c r="L38" s="1">
         <v>96.13</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M38" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.25" customHeight="1">
       <c r="A39" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2545,8 +2784,12 @@
       <c r="L39" s="1">
         <v>96.74</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M39" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.25" customHeight="1">
       <c r="A40" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2585,8 +2828,12 @@
       <c r="L40" s="1">
         <v>96.43</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M40" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.25" customHeight="1">
       <c r="A41" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2625,8 +2872,12 @@
       <c r="L41" s="1">
         <v>95.12</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M41" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14.25" customHeight="1">
       <c r="A42" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2665,8 +2916,12 @@
       <c r="L42" s="1">
         <v>94.81</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M42" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14.25" customHeight="1">
       <c r="A43" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2705,8 +2960,12 @@
       <c r="L43" s="1">
         <v>93.61</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M43" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14.25" customHeight="1">
       <c r="A44" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2745,8 +3004,12 @@
       <c r="L44" s="1">
         <v>91.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M44" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="14.25" customHeight="1">
       <c r="A45" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2785,8 +3048,12 @@
       <c r="L45" s="1">
         <v>90.62</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M45" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14.25" customHeight="1">
       <c r="A46" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2825,8 +3092,12 @@
       <c r="L46" s="1">
         <v>86.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M46" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="14.25" customHeight="1">
       <c r="A47" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2865,8 +3136,12 @@
       <c r="L47" s="1">
         <v>85.11</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M47" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="14.25" customHeight="1">
       <c r="A48" s="1">
         <f t="shared" si="4"/>
         <v>2008</v>
@@ -2905,8 +3180,12 @@
       <c r="L48" s="1">
         <v>85.18</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M48" s="7">
+        <f>+[1]Hoja1!$F$38</f>
+        <v>7.1175486909290138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" customHeight="1">
       <c r="A49" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -2945,8 +3224,12 @@
       <c r="L49" s="1">
         <v>84.42</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M49" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" customHeight="1">
       <c r="A50" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -2985,8 +3268,12 @@
       <c r="L50" s="1">
         <v>83.09</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M50" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="14.25" customHeight="1">
       <c r="A51" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3025,8 +3312,12 @@
       <c r="L51" s="1">
         <v>83.05</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M51" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="14.25" customHeight="1">
       <c r="A52" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3065,8 +3356,12 @@
       <c r="L52" s="1">
         <v>83.91</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M52" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="14.25" customHeight="1">
       <c r="A53" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3105,8 +3400,12 @@
       <c r="L53" s="1">
         <v>84.89</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M53" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="14.25" customHeight="1">
       <c r="A54" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3145,8 +3444,12 @@
       <c r="L54" s="1">
         <v>85.32</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M54" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="14.25" customHeight="1">
       <c r="A55" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3185,8 +3488,12 @@
       <c r="L55" s="1">
         <v>84.79</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M55" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="14.25" customHeight="1">
       <c r="A56" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3225,8 +3532,12 @@
       <c r="L56" s="1">
         <v>85.48</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M56" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="14.25" customHeight="1">
       <c r="A57" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3265,8 +3576,12 @@
       <c r="L57" s="1">
         <v>85.72</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M57" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="14.25" customHeight="1">
       <c r="A58" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3305,8 +3620,12 @@
       <c r="L58" s="1">
         <v>86.22</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M58" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="14.25" customHeight="1">
       <c r="A59" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3345,8 +3664,12 @@
       <c r="L59" s="1">
         <v>86.44</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M59" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="14.25" customHeight="1">
       <c r="A60" s="1">
         <f t="shared" si="4"/>
         <v>2009</v>
@@ -3385,8 +3708,12 @@
       <c r="L60" s="1">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M60" s="7">
+        <f>+[1]Hoja1!$G$38</f>
+        <v>5.7806429523472911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3425,8 +3752,12 @@
       <c r="L61" s="1">
         <v>86.33</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M61" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3465,8 +3796,12 @@
       <c r="L62" s="1">
         <v>85.22</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M62" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3505,8 +3840,12 @@
       <c r="L63" s="1">
         <v>85.28</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M63" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="14.25" customHeight="1">
       <c r="A64" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3545,8 +3884,12 @@
       <c r="L64" s="1">
         <v>84.99</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M64" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3585,8 +3928,12 @@
       <c r="L65" s="1">
         <v>83.66</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M65" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="14.25" customHeight="1">
       <c r="A66" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3625,8 +3972,12 @@
       <c r="L66" s="1">
         <v>82.97</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M66" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="14.25" customHeight="1">
       <c r="A67" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3665,8 +4016,12 @@
       <c r="L67" s="1">
         <v>83.11</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M67" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3705,8 +4060,12 @@
       <c r="L68" s="1">
         <v>83.19</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M68" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3745,8 +4104,12 @@
       <c r="L69" s="1">
         <v>83.09</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M69" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3785,8 +4148,12 @@
       <c r="L70" s="1">
         <v>83.72</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M70" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3825,8 +4192,12 @@
       <c r="L71" s="1">
         <v>83.07</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M71" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="1">
         <f t="shared" si="4"/>
         <v>2010</v>
@@ -3865,8 +4236,12 @@
       <c r="L72" s="1">
         <v>82.94</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M72" s="7">
+        <f>+[1]Hoja1!$H$38</f>
+        <v>4.8756835943763841</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -3905,8 +4280,12 @@
       <c r="L73" s="1">
         <v>84.08</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M73" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="14.25" customHeight="1">
       <c r="A74" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -3945,8 +4324,12 @@
       <c r="L74" s="1">
         <v>84.15</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M74" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -3985,8 +4368,12 @@
       <c r="L75" s="1">
         <v>84.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M75" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4025,8 +4412,12 @@
       <c r="L76" s="1">
         <v>84.54</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M76" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="14.25" customHeight="1">
       <c r="A77" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4065,8 +4456,12 @@
       <c r="L77" s="1">
         <v>84.23</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M77" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="14.25" customHeight="1">
       <c r="A78" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4105,8 +4500,12 @@
       <c r="L78" s="1">
         <v>83.91</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M78" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="14.25" customHeight="1">
       <c r="A79" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4145,8 +4544,12 @@
       <c r="L79" s="1">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M79" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="14.25" customHeight="1">
       <c r="A80" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4185,8 +4588,12 @@
       <c r="L80" s="1">
         <v>83.05</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M80" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4225,8 +4632,12 @@
       <c r="L81" s="1">
         <v>82.66</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M81" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4265,8 +4676,12 @@
       <c r="L82" s="1">
         <v>82.51</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M82" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4305,8 +4720,12 @@
       <c r="L83" s="1">
         <v>82.13</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M83" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="1">
         <f t="shared" si="4"/>
         <v>2011</v>
@@ -4345,8 +4764,12 @@
       <c r="L84" s="1">
         <v>81.790000000000006</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M84" s="7">
+        <f>+[1]Hoja1!$I$38</f>
+        <v>3.8026474591046329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="1">
         <f t="shared" si="4"/>
         <v>2012</v>
@@ -4385,8 +4808,12 @@
       <c r="L85" s="1">
         <v>82.57</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M85" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="1">
         <f t="shared" si="4"/>
         <v>2012</v>
@@ -4425,8 +4852,12 @@
       <c r="L86" s="1">
         <v>83.16</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M86" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="1">
         <f t="shared" si="4"/>
         <v>2012</v>
@@ -4465,8 +4896,12 @@
       <c r="L87" s="1">
         <v>83.06</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M87" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="14.25" customHeight="1">
       <c r="A88" s="1">
         <f t="shared" si="4"/>
         <v>2012</v>
@@ -4505,8 +4940,12 @@
       <c r="L88" s="1">
         <v>82.33</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M88" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="14.25" customHeight="1">
       <c r="A89" s="1">
         <f t="shared" si="4"/>
         <v>2012</v>
@@ -4545,8 +4984,12 @@
       <c r="L89" s="1">
         <v>81.69</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M89" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="14.25" customHeight="1">
       <c r="A90" s="1">
         <f t="shared" ref="A90:A153" si="6">+A78+1</f>
         <v>2012</v>
@@ -4585,8 +5028,12 @@
       <c r="L90" s="1">
         <v>81.42</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M90" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="14.25" customHeight="1">
       <c r="A91" s="1">
         <f t="shared" si="6"/>
         <v>2012</v>
@@ -4625,8 +5072,12 @@
       <c r="L91" s="1">
         <v>81.8</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M91" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="14.25" customHeight="1">
       <c r="A92" s="1">
         <f t="shared" si="6"/>
         <v>2012</v>
@@ -4665,8 +5116,12 @@
       <c r="L92" s="1">
         <v>82.28</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M92" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="14.25" customHeight="1">
       <c r="A93" s="1">
         <f t="shared" si="6"/>
         <v>2012</v>
@@ -4705,8 +5160,12 @@
       <c r="L93" s="1">
         <v>82.99</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M93" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="14.25" customHeight="1">
       <c r="A94" s="1">
         <f t="shared" si="6"/>
         <v>2012</v>
@@ -4745,8 +5204,12 @@
       <c r="L94" s="1">
         <v>83.32</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M94" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="14.25" customHeight="1">
       <c r="A95" s="1">
         <f t="shared" si="6"/>
         <v>2012</v>
@@ -4785,8 +5248,12 @@
       <c r="L95" s="1">
         <v>83.16</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M95" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="14.25" customHeight="1">
       <c r="A96" s="1">
         <f t="shared" si="6"/>
         <v>2012</v>
@@ -4825,8 +5292,12 @@
       <c r="L96" s="1">
         <v>83.88</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M96" s="7">
+        <f>+[1]Hoja1!$J$38</f>
+        <v>2.7296113238328821</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="14.25" customHeight="1">
       <c r="A97" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -4865,8 +5336,12 @@
       <c r="L97" s="1">
         <v>84.14</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M97" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="14.25" customHeight="1">
       <c r="A98" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -4905,8 +5380,12 @@
       <c r="L98" s="1">
         <v>83.98</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M98" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="14.25" customHeight="1">
       <c r="A99" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -4945,8 +5424,12 @@
       <c r="L99" s="1">
         <v>83.42</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M99" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="14.25" customHeight="1">
       <c r="A100" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -4985,8 +5468,12 @@
       <c r="L100" s="1">
         <v>83.55</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M100" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="14.25" customHeight="1">
       <c r="A101" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -5025,8 +5512,12 @@
       <c r="L101" s="1">
         <v>83.57</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M101" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="14.25" customHeight="1">
       <c r="A102" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -5065,8 +5556,12 @@
       <c r="L102" s="1">
         <v>83.46</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M102" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="14.25" customHeight="1">
       <c r="A103" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -5105,8 +5600,12 @@
       <c r="L103" s="1">
         <v>83.36</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M103" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="14.25" customHeight="1">
       <c r="A104" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -5145,8 +5644,12 @@
       <c r="L104" s="1">
         <v>83.44</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M104" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="14.25" customHeight="1">
       <c r="A105" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -5185,8 +5688,12 @@
       <c r="L105" s="1">
         <v>83.6</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M105" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="14.25" customHeight="1">
       <c r="A106" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -5225,8 +5732,12 @@
       <c r="L106" s="1">
         <v>84.03</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M106" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="14.25" customHeight="1">
       <c r="A107" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -5265,8 +5776,12 @@
       <c r="L107" s="1">
         <v>83.73</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M107" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="14.25" customHeight="1">
       <c r="A108" s="1">
         <f t="shared" si="6"/>
         <v>2013</v>
@@ -5305,8 +5820,12 @@
       <c r="L108" s="1">
         <v>84.05</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M108" s="7">
+        <f>+[1]Hoja1!$K$38</f>
+        <v>1.6565751885611315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="14.25" customHeight="1">
       <c r="A109" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5345,8 +5864,12 @@
       <c r="L109" s="1">
         <v>82.63</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M109" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="14.25" customHeight="1">
       <c r="A110" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5385,8 +5908,12 @@
       <c r="L110" s="1">
         <v>82.2</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M110" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="14.25" customHeight="1">
       <c r="A111" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5425,8 +5952,12 @@
       <c r="L111" s="1">
         <v>82.39</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M111" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="14.25" customHeight="1">
       <c r="A112" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5465,8 +5996,12 @@
       <c r="L112" s="1">
         <v>82.6</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M112" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="14.25" customHeight="1">
       <c r="A113" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5505,8 +6040,12 @@
       <c r="L113" s="1">
         <v>82.52</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M113" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="14.25" customHeight="1">
       <c r="A114" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5545,8 +6084,12 @@
       <c r="L114" s="1">
         <v>82.55</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M114" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="14.25" customHeight="1">
       <c r="A115" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5585,8 +6128,12 @@
       <c r="L115" s="1">
         <v>82.1</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M115" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="14.25" customHeight="1">
       <c r="A116" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5625,8 +6172,12 @@
       <c r="L116" s="1">
         <v>81.97</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M116" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="14.25" customHeight="1">
       <c r="A117" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5665,8 +6216,12 @@
       <c r="L117" s="1">
         <v>81.849999999999994</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M117" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="14.25" customHeight="1">
       <c r="A118" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5705,8 +6260,12 @@
       <c r="L118" s="1">
         <v>81.56</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M118" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="14.25" customHeight="1">
       <c r="A119" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5745,8 +6304,12 @@
       <c r="L119" s="1">
         <v>80.92</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M119" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="14.25" customHeight="1">
       <c r="A120" s="1">
         <f t="shared" si="6"/>
         <v>2014</v>
@@ -5785,8 +6348,12 @@
       <c r="L120" s="1">
         <v>80.61</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M120" s="7">
+        <f>+[1]Hoja1!$L$38</f>
+        <v>0.58353905328938116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="14.25" customHeight="1">
       <c r="A121" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -5825,8 +6392,12 @@
       <c r="L121" s="1">
         <v>80.150000000000006</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M121" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="14.25" customHeight="1">
       <c r="A122" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -5865,8 +6436,12 @@
       <c r="L122" s="1">
         <v>80.09</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M122" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="14.25" customHeight="1">
       <c r="A123" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -5905,8 +6480,12 @@
       <c r="L123" s="1">
         <v>79.099999999999994</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M123" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="14.25" customHeight="1">
       <c r="A124" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -5945,8 +6524,12 @@
       <c r="L124" s="1">
         <v>79.489999999999995</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M124" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="14.25" customHeight="1">
       <c r="A125" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -5985,8 +6568,12 @@
       <c r="L125" s="1">
         <v>79.75</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M125" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="14.25" customHeight="1">
       <c r="A126" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -6025,8 +6612,12 @@
       <c r="L126" s="1">
         <v>79.2</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M126" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="14.25" customHeight="1">
       <c r="A127" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -6065,8 +6656,12 @@
       <c r="L127" s="1">
         <v>78.33</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M127" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="14.25" customHeight="1">
       <c r="A128" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -6105,8 +6700,12 @@
       <c r="L128" s="1">
         <v>77.930000000000007</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M128" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="14.25" customHeight="1">
       <c r="A129" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -6145,8 +6744,12 @@
       <c r="L129" s="1">
         <v>77.69</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M129" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="14.25" customHeight="1">
       <c r="A130" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -6185,8 +6788,12 @@
       <c r="L130" s="1">
         <v>78.489999999999995</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M130" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="14.25" customHeight="1">
       <c r="A131" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -6225,8 +6832,12 @@
       <c r="L131" s="1">
         <v>78.239999999999995</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M131" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="14.25" customHeight="1">
       <c r="A132" s="1">
         <f t="shared" si="6"/>
         <v>2015</v>
@@ -6265,8 +6876,12 @@
       <c r="L132" s="1">
         <v>78.44</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M132" s="7">
+        <f>+[1]Hoja1!$M$38</f>
+        <v>0.45587613370937236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="14.25" customHeight="1">
       <c r="A133" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6305,8 +6920,12 @@
       <c r="L133" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M133" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="14.25" customHeight="1">
       <c r="A134" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6345,8 +6964,12 @@
       <c r="L134" s="1">
         <v>79.430000000000007</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M134" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="14.25" customHeight="1">
       <c r="A135" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6385,8 +7008,12 @@
       <c r="L135" s="1">
         <v>80.239999999999995</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M135" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="14.25" customHeight="1">
       <c r="A136" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6425,8 +7052,12 @@
       <c r="L136" s="1">
         <v>80.75</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M136" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="14.25" customHeight="1">
       <c r="A137" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6465,8 +7096,12 @@
       <c r="L137" s="1">
         <v>80.36</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M137" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="14.25" customHeight="1">
       <c r="A138" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6505,8 +7140,12 @@
       <c r="L138" s="1">
         <v>80.14</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M138" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="14.25" customHeight="1">
       <c r="A139" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6545,8 +7184,12 @@
       <c r="L139" s="1">
         <v>80.03</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M139" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="14.25" customHeight="1">
       <c r="A140" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6585,8 +7228,12 @@
       <c r="L140" s="1">
         <v>80.55</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M140" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="14.25" customHeight="1">
       <c r="A141" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6625,8 +7272,12 @@
       <c r="L141" s="1">
         <v>80.69</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M141" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="14.25" customHeight="1">
       <c r="A142" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6665,8 +7316,12 @@
       <c r="L142" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M142" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="14.25" customHeight="1">
       <c r="A143" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6705,8 +7360,12 @@
       <c r="L143" s="1">
         <v>80.36</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M143" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="14.25" customHeight="1">
       <c r="A144" s="1">
         <f t="shared" si="6"/>
         <v>2016</v>
@@ -6745,8 +7404,12 @@
       <c r="L144" s="1">
         <v>80.66</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M144" s="7">
+        <f>+[1]Hoja1!$N$38</f>
+        <v>0.32821321412936361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="14.25" customHeight="1">
       <c r="A145" s="1">
         <f t="shared" si="6"/>
         <v>2017</v>
@@ -6785,8 +7448,12 @@
       <c r="L145" s="1">
         <v>81.209999999999994</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M145" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="14.25" customHeight="1">
       <c r="A146" s="1">
         <f t="shared" si="6"/>
         <v>2017</v>
@@ -6825,8 +7492,12 @@
       <c r="L146" s="1">
         <v>81.14</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M146" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="14.25" customHeight="1">
       <c r="A147" s="1">
         <f t="shared" si="6"/>
         <v>2017</v>
@@ -6865,8 +7536,12 @@
       <c r="L147" s="1">
         <v>81.03</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M147" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="14.25" customHeight="1">
       <c r="A148" s="1">
         <f t="shared" si="6"/>
         <v>2017</v>
@@ -6905,8 +7580,12 @@
       <c r="L148" s="1">
         <v>81.13</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M148" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="14.25" customHeight="1">
       <c r="A149" s="1">
         <f t="shared" si="6"/>
         <v>2017</v>
@@ -6945,8 +7624,12 @@
       <c r="L149" s="1">
         <v>81.19</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M149" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="14.25" customHeight="1">
       <c r="A150" s="1">
         <f t="shared" si="6"/>
         <v>2017</v>
@@ -6985,8 +7668,12 @@
       <c r="L150" s="1">
         <v>81.459999999999994</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M150" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="14.25" customHeight="1">
       <c r="A151" s="1">
         <f t="shared" si="6"/>
         <v>2017</v>
@@ -7025,8 +7712,12 @@
       <c r="L151" s="1">
         <v>81.69</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M151" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="14.25" customHeight="1">
       <c r="A152" s="1">
         <f t="shared" si="6"/>
         <v>2017</v>
@@ -7065,8 +7756,12 @@
       <c r="L152" s="1">
         <v>82.13</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M152" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="14.25" customHeight="1">
       <c r="A153" s="1">
         <f t="shared" si="6"/>
         <v>2017</v>
@@ -7105,8 +7800,12 @@
       <c r="L153" s="1">
         <v>82.89</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M153" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="14.25" customHeight="1">
       <c r="A154" s="1">
         <f t="shared" ref="A154:A217" si="8">+A142+1</f>
         <v>2017</v>
@@ -7145,8 +7844,12 @@
       <c r="L154" s="1">
         <v>82.33</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M154" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="14.25" customHeight="1">
       <c r="A155" s="1">
         <f t="shared" si="8"/>
         <v>2017</v>
@@ -7185,8 +7888,12 @@
       <c r="L155" s="1">
         <v>82.29</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M155" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="14.25" customHeight="1">
       <c r="A156" s="1">
         <f t="shared" si="8"/>
         <v>2017</v>
@@ -7225,8 +7932,12 @@
       <c r="L156" s="1">
         <v>82.1</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M156" s="7">
+        <f>+[1]Hoja1!$O$38</f>
+        <v>0.21973721957625078</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="14.25" customHeight="1">
       <c r="A157" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7265,8 +7976,12 @@
       <c r="L157" s="1">
         <v>82.91</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M157" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="14.25" customHeight="1">
       <c r="A158" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7305,8 +8020,12 @@
       <c r="L158" s="1">
         <v>83.09</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M158" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="14.25" customHeight="1">
       <c r="A159" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7345,8 +8064,12 @@
       <c r="L159" s="1">
         <v>83.03</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M159" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="14.25" customHeight="1">
       <c r="A160" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7385,8 +8108,12 @@
       <c r="L160" s="1">
         <v>83.19</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M160" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="14.25" customHeight="1">
       <c r="A161" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7425,8 +8152,12 @@
       <c r="L161" s="1">
         <v>82.56</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M161" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="14.25" customHeight="1">
       <c r="A162" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7465,8 +8196,12 @@
       <c r="L162" s="1">
         <v>82.17</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M162" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="14.25" customHeight="1">
       <c r="A163" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7505,8 +8240,12 @@
       <c r="L163" s="1">
         <v>82.04</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M163" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="14.25" customHeight="1">
       <c r="A164" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7545,8 +8284,12 @@
       <c r="L164" s="1">
         <v>81.64</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M164" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="14.25" customHeight="1">
       <c r="A165" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7585,8 +8328,12 @@
       <c r="L165" s="1">
         <v>81.95</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M165" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="14.25" customHeight="1">
       <c r="A166" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7625,8 +8372,12 @@
       <c r="L166" s="1">
         <v>81.569999999999993</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M166" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="14.25" customHeight="1">
       <c r="A167" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7665,8 +8416,12 @@
       <c r="L167" s="1">
         <v>80.91</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M167" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="14.25" customHeight="1">
       <c r="A168" s="1">
         <f t="shared" si="8"/>
         <v>2018</v>
@@ -7705,8 +8460,12 @@
       <c r="L168" s="1">
         <v>81.27</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M168" s="7">
+        <f>+[1]Hoja1!$P$38</f>
+        <v>0.11126122502313791</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="14.25" customHeight="1">
       <c r="A169" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -7745,8 +8504,12 @@
       <c r="L169" s="1">
         <v>81.739999999999995</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M169" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="14.25" customHeight="1">
       <c r="A170" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -7785,8 +8548,12 @@
       <c r="L170" s="1">
         <v>81.56</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M170" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="14.25" customHeight="1">
       <c r="A171" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -7825,8 +8592,12 @@
       <c r="L171" s="1">
         <v>81.599999999999994</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M171" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="14.25" customHeight="1">
       <c r="A172" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -7865,8 +8636,12 @@
       <c r="L172" s="1">
         <v>81.14</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M172" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="14.25" customHeight="1">
       <c r="A173" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -7905,8 +8680,12 @@
       <c r="L173" s="1">
         <v>80.56</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M173" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="14.25" customHeight="1">
       <c r="A174" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -7945,8 +8724,12 @@
       <c r="L174" s="1">
         <v>80.790000000000006</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M174" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="14.25" customHeight="1">
       <c r="A175" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -7985,8 +8768,12 @@
       <c r="L175" s="1">
         <v>80.7</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M175" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="14.25" customHeight="1">
       <c r="A176" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -8025,8 +8812,12 @@
       <c r="L176" s="1">
         <v>80.239999999999995</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M176" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="14.25" customHeight="1">
       <c r="A177" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -8065,8 +8856,12 @@
       <c r="L177" s="1">
         <v>80.27</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M177" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="14.25" customHeight="1">
       <c r="A178" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -8105,8 +8900,12 @@
       <c r="L178" s="1">
         <v>80.62</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M178" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="14.25" customHeight="1">
       <c r="A179" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -8145,8 +8944,12 @@
       <c r="L179" s="1">
         <v>80.63</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M179" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="14.25" customHeight="1">
       <c r="A180" s="1">
         <f t="shared" si="8"/>
         <v>2019</v>
@@ -8185,8 +8988,12 @@
       <c r="L180" s="1">
         <v>80.7</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M180" s="7">
+        <f>+[1]Hoja1!$Q$38</f>
+        <v>3.5931449556376722E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="14.25" customHeight="1">
       <c r="A181" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8225,8 +9032,12 @@
       <c r="L181" s="1">
         <v>80.930000000000007</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M181" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="14.25" customHeight="1">
       <c r="A182" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8265,8 +9076,12 @@
       <c r="L182" s="1">
         <v>80.36</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M182" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="14.25" customHeight="1">
       <c r="A183" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8305,8 +9120,12 @@
       <c r="L183" s="1">
         <v>78.73</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M183" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="14.25" customHeight="1">
       <c r="A184" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8345,8 +9164,12 @@
       <c r="L184" s="1">
         <v>77.11</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M184" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="14.25" customHeight="1">
       <c r="A185" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8385,8 +9208,12 @@
       <c r="L185" s="1">
         <v>77.7</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M185" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="14.25" customHeight="1">
       <c r="A186" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8425,8 +9252,12 @@
       <c r="L186" s="1">
         <v>78.47</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M186" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="14.25" customHeight="1">
       <c r="A187" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8465,8 +9296,12 @@
       <c r="L187" s="1">
         <v>78.08</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M187" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="14.25" customHeight="1">
       <c r="A188" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8505,8 +9340,12 @@
       <c r="L188" s="1">
         <v>78.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M188" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="14.25" customHeight="1">
       <c r="A189" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8545,8 +9384,12 @@
       <c r="L189" s="1">
         <v>78.400000000000006</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M189" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="14.25" customHeight="1">
       <c r="A190" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8585,8 +9428,12 @@
       <c r="L190" s="1">
         <v>78.03</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M190" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="14.25" customHeight="1">
       <c r="A191" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8625,8 +9472,12 @@
       <c r="L191" s="1">
         <v>77.95</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M191" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="14.25" customHeight="1">
       <c r="A192" s="1">
         <f t="shared" si="8"/>
         <v>2020</v>
@@ -8665,8 +9516,12 @@
       <c r="L192" s="1">
         <v>78.17</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M192" s="7">
+        <f>+[1]Hoja1!$R$38</f>
+        <v>2.892942783263621E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="14.25" customHeight="1">
       <c r="A193" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -8705,8 +9560,12 @@
       <c r="L193" s="1">
         <v>78.62</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M193" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="14.25" customHeight="1">
       <c r="A194" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -8745,8 +9604,12 @@
       <c r="L194" s="1">
         <v>78.510000000000005</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" ht="15" customHeight="1">
+      <c r="M194" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="15" customHeight="1">
       <c r="A195" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -8785,8 +9648,12 @@
       <c r="L195" s="1">
         <v>77.8</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" ht="15" customHeight="1">
+      <c r="M195" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="15" customHeight="1">
       <c r="A196" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -8825,8 +9692,12 @@
       <c r="L196" s="1">
         <v>78.09</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M196" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="14.25" customHeight="1">
       <c r="A197" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -8865,8 +9736,12 @@
       <c r="L197" s="1">
         <v>78.63</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M197" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="14.25" customHeight="1">
       <c r="A198" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -8905,8 +9780,12 @@
       <c r="L198" s="1">
         <v>78.63</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M198" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="14.25" customHeight="1">
       <c r="A199" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -8945,8 +9824,12 @@
       <c r="L199" s="1">
         <v>77.61</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M199" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="14.25" customHeight="1">
       <c r="A200" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -8985,8 +9868,12 @@
       <c r="L200" s="1">
         <v>77.37</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M200" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="14.25" customHeight="1">
       <c r="A201" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -9025,8 +9912,12 @@
       <c r="L201" s="1">
         <v>78.3</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M201" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="14.25" customHeight="1">
       <c r="A202" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -9065,8 +9956,12 @@
       <c r="L202" s="1">
         <v>78.349999999999994</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M202" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="14.25" customHeight="1">
       <c r="A203" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -9105,8 +10000,12 @@
       <c r="L203" s="1">
         <v>78.08</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M203" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="14.25" customHeight="1">
       <c r="A204" s="1">
         <f t="shared" si="8"/>
         <v>2021</v>
@@ -9145,8 +10044,12 @@
       <c r="L204" s="1">
         <v>77.94</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M204" s="7">
+        <f>+[1]Hoja1!$S$38</f>
+        <v>2.1927406108895701E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="14.25" customHeight="1">
       <c r="A205" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9185,8 +10088,12 @@
       <c r="L205" s="1">
         <v>78.52</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M205" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="14.25" customHeight="1">
       <c r="A206" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9225,8 +10132,12 @@
       <c r="L206" s="1">
         <v>79.22</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M206" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="14.25" customHeight="1">
       <c r="A207" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9265,8 +10176,12 @@
       <c r="L207" s="1">
         <v>78.61</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M207" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="14.25" customHeight="1">
       <c r="A208" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9305,8 +10220,12 @@
       <c r="L208" s="1">
         <v>77.28</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M208" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="14.25" customHeight="1">
       <c r="A209" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9345,8 +10264,12 @@
       <c r="L209" s="1">
         <v>76.14</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M209" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="14.25" customHeight="1">
       <c r="A210" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9385,8 +10308,12 @@
       <c r="L210" s="1">
         <v>75.89</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M210" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="14.25" customHeight="1">
       <c r="A211" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9425,8 +10352,12 @@
       <c r="L211" s="1">
         <v>74.48</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M211" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="14.25" customHeight="1">
       <c r="A212" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9465,8 +10396,12 @@
       <c r="L212" s="1">
         <v>74.739999999999995</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M212" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" ht="14.25" customHeight="1">
       <c r="A213" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9505,8 +10440,12 @@
       <c r="L213" s="1">
         <v>74.55</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M213" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" ht="14.25" customHeight="1">
       <c r="A214" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9545,8 +10484,12 @@
       <c r="L214" s="1">
         <v>74.19</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M214" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="14.25" customHeight="1">
       <c r="A215" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9585,8 +10528,12 @@
       <c r="L215" s="1">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M215" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" ht="14.25" customHeight="1">
       <c r="A216" s="1">
         <f t="shared" si="8"/>
         <v>2022</v>
@@ -9625,8 +10572,12 @@
       <c r="L216" s="1">
         <v>74.790000000000006</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" ht="14.25" customHeight="1">
+      <c r="M216" s="7">
+        <f>+[1]Hoja1!$T$38</f>
+        <v>1.4925384385155187E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" ht="14.25" customHeight="1">
       <c r="A217" s="1">
         <f t="shared" si="8"/>
         <v>2023</v>
@@ -9665,8 +10616,12 @@
       <c r="L217" s="1">
         <v>75.25</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" ht="15" customHeight="1">
+      <c r="M217" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" ht="15" customHeight="1">
       <c r="A218" s="1">
         <f t="shared" ref="A218:A229" si="10">+A206+1</f>
         <v>2023</v>
@@ -9705,8 +10660,12 @@
       <c r="L218" s="1">
         <v>74.48</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" ht="15" customHeight="1">
+      <c r="M218" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="15" customHeight="1">
       <c r="A219" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -9745,8 +10704,12 @@
       <c r="L219" s="1">
         <v>74.430000000000007</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" ht="15" customHeight="1">
+      <c r="M219" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" ht="15" customHeight="1">
       <c r="A220" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -9785,8 +10748,12 @@
       <c r="L220" s="1">
         <v>75.06</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" ht="15" customHeight="1">
+      <c r="M220" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" ht="15" customHeight="1">
       <c r="A221" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -9825,8 +10792,12 @@
       <c r="L221" s="1">
         <v>74.790000000000006</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" ht="15" customHeight="1">
+      <c r="M221" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" ht="15" customHeight="1">
       <c r="A222" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -9865,8 +10836,12 @@
       <c r="L222" s="1">
         <v>74.709999999999994</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" ht="15" customHeight="1">
+      <c r="M222" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" ht="15" customHeight="1">
       <c r="A223" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -9905,8 +10880,12 @@
       <c r="L223" s="1">
         <v>74.91</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" ht="15" customHeight="1">
+      <c r="M223" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" ht="15" customHeight="1">
       <c r="A224" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -9945,8 +10924,12 @@
       <c r="L224" s="1">
         <v>74.489999999999995</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" ht="15" customHeight="1">
+      <c r="M224" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" ht="15" customHeight="1">
       <c r="A225" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -9985,8 +10968,12 @@
       <c r="L225" s="1">
         <v>74.010000000000005</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" ht="15" customHeight="1">
+      <c r="M225" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="15" customHeight="1">
       <c r="A226" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -10025,8 +11012,12 @@
       <c r="L226" s="1">
         <v>73.319999999999993</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" ht="15" customHeight="1">
+      <c r="M226" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="15" customHeight="1">
       <c r="A227" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -10065,8 +11056,12 @@
       <c r="L227" s="1">
         <v>73.92</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" ht="15" customHeight="1">
+      <c r="M227" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" ht="15" customHeight="1">
       <c r="A228" s="1">
         <f t="shared" si="10"/>
         <v>2023</v>
@@ -10105,8 +11100,12 @@
       <c r="L228" s="1">
         <v>74.06</v>
       </c>
-    </row>
-    <row r="229" spans="1:12">
+      <c r="M228" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13">
       <c r="A229" s="1">
         <f t="shared" si="10"/>
         <v>2024</v>
@@ -10144,6 +11143,10 @@
       </c>
       <c r="L229" s="1">
         <v>74.13</v>
+      </c>
+      <c r="M229" s="7">
+        <f>+[1]Hoja1!$U$38</f>
+        <v>7.9233626614146763E-4</v>
       </c>
     </row>
   </sheetData>
